--- a/simulation_data/iterative_algorithm/i_error_level_11_percent_water_80.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_11_percent_water_80.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.9307831452912</v>
+        <v>87.76484616411918</v>
       </c>
       <c r="D2" t="n">
-        <v>19.80665928991544</v>
+        <v>18.90359167255269</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>87.32677958075894</v>
+        <v>92.74728606659646</v>
       </c>
       <c r="D3" t="n">
-        <v>19.48129992786118</v>
+        <v>18.28897290312031</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>84.38717896489661</v>
+        <v>86.47433318245253</v>
       </c>
       <c r="D4" t="n">
-        <v>18.85504450579399</v>
+        <v>18.45064944462838</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>90.57312150013517</v>
+        <v>84.87351192993169</v>
       </c>
       <c r="D5" t="n">
-        <v>21.282127220573</v>
+        <v>20.15503329530494</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>84.27052017905581</v>
+        <v>85.73504544428697</v>
       </c>
       <c r="D6" t="n">
-        <v>17.82350242562539</v>
+        <v>16.9057172353179</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>86.78874659657082</v>
+        <v>85.42767324554762</v>
       </c>
       <c r="D7" t="n">
-        <v>17.55431026323516</v>
+        <v>19.41682532753765</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>86.74287326883822</v>
+        <v>84.10675070793788</v>
       </c>
       <c r="D8" t="n">
-        <v>18.84148130499964</v>
+        <v>19.70493202556166</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>85.47481964157879</v>
+        <v>83.18277464812189</v>
       </c>
       <c r="D9" t="n">
-        <v>20.31014870094116</v>
+        <v>18.46531852012103</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>83.94984256707444</v>
+        <v>85.55502159382942</v>
       </c>
       <c r="D10" t="n">
-        <v>19.84545820291748</v>
+        <v>20.39255713531663</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>84.28683006630486</v>
+        <v>79.82859891419342</v>
       </c>
       <c r="D11" t="n">
-        <v>18.44010199865768</v>
+        <v>16.66871528052031</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.10811574429667</v>
+        <v>79.27441746550724</v>
       </c>
       <c r="D12" t="n">
-        <v>18.1802165901154</v>
+        <v>19.17665354175199</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>80.69388577438825</v>
+        <v>81.17825967889969</v>
       </c>
       <c r="D13" t="n">
-        <v>18.70747595321131</v>
+        <v>18.81144454705174</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.6002190421176</v>
+        <v>78.5773888542508</v>
       </c>
       <c r="D14" t="n">
-        <v>20.78881487476115</v>
+        <v>19.72989904846337</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>74.84890138931669</v>
+        <v>76.77012599732647</v>
       </c>
       <c r="D15" t="n">
-        <v>23.42400964856556</v>
+        <v>20.05277209244156</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.19278784658206</v>
+        <v>74.30261225428076</v>
       </c>
       <c r="D16" t="n">
-        <v>17.93408688380717</v>
+        <v>18.77480610088001</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.33584047309938</v>
+        <v>75.62351105398957</v>
       </c>
       <c r="D17" t="n">
-        <v>19.11448184151909</v>
+        <v>16.49260307460385</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>76.87971837446517</v>
+        <v>73.93848406328766</v>
       </c>
       <c r="D18" t="n">
-        <v>17.4061255028562</v>
+        <v>20.31820430772209</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>74.21684896323126</v>
+        <v>77.26843903669661</v>
       </c>
       <c r="D19" t="n">
-        <v>20.96865577168809</v>
+        <v>17.92371264866748</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>73.18163344522623</v>
+        <v>72.63332214578391</v>
       </c>
       <c r="D20" t="n">
-        <v>18.13630325440134</v>
+        <v>19.31873297155553</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>69.53211615231174</v>
+        <v>69.59608016196316</v>
       </c>
       <c r="D21" t="n">
-        <v>19.14867848943426</v>
+        <v>20.1732197265385</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.05021946898296</v>
+        <v>71.39666479430785</v>
       </c>
       <c r="D22" t="n">
-        <v>18.41423339851806</v>
+        <v>17.9596537638665</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>70.06786649148584</v>
+        <v>69.8744020336996</v>
       </c>
       <c r="D23" t="n">
-        <v>18.08693676481822</v>
+        <v>19.15353712926897</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>69.21890304276415</v>
+        <v>67.90573816392448</v>
       </c>
       <c r="D24" t="n">
-        <v>19.11029060730846</v>
+        <v>18.46903299927629</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.55475951619721</v>
+        <v>67.77304909383905</v>
       </c>
       <c r="D25" t="n">
-        <v>21.03179242788402</v>
+        <v>17.70714386083497</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>68.80585299608475</v>
+        <v>66.03730504091372</v>
       </c>
       <c r="D26" t="n">
-        <v>20.39739874244333</v>
+        <v>18.27832025510967</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.39247477962687</v>
+        <v>64.18981178199873</v>
       </c>
       <c r="D27" t="n">
-        <v>17.54607340226083</v>
+        <v>17.68814343574973</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.51115750489335</v>
+        <v>65.15788337670976</v>
       </c>
       <c r="D28" t="n">
-        <v>17.12439297258575</v>
+        <v>19.46122506008194</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>65.7753631168256</v>
+        <v>59.72312514798702</v>
       </c>
       <c r="D29" t="n">
-        <v>20.8741696457949</v>
+        <v>19.26540303587519</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>60.78330421362308</v>
+        <v>62.53117292044674</v>
       </c>
       <c r="D30" t="n">
-        <v>20.34689296397723</v>
+        <v>19.95102448619615</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>62.83521999230092</v>
+        <v>60.1081773326563</v>
       </c>
       <c r="D31" t="n">
-        <v>20.56112477072945</v>
+        <v>20.34494181440765</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>61.03144674736555</v>
+        <v>61.00850841122759</v>
       </c>
       <c r="D32" t="n">
-        <v>18.73621474976438</v>
+        <v>22.0419954122621</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>61.21934918097003</v>
+        <v>57.68845374910786</v>
       </c>
       <c r="D33" t="n">
-        <v>17.35178651179435</v>
+        <v>19.64815731694374</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.78916657632045</v>
+        <v>60.38132622976693</v>
       </c>
       <c r="D34" t="n">
-        <v>18.34385709070265</v>
+        <v>20.74600934012053</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.27027765909677</v>
+        <v>58.61278131519578</v>
       </c>
       <c r="D35" t="n">
-        <v>20.34677203701191</v>
+        <v>19.60492775239824</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>57.97481375440872</v>
+        <v>53.65426657825078</v>
       </c>
       <c r="D36" t="n">
-        <v>20.8970939611332</v>
+        <v>19.63970255740259</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.2019854490043</v>
+        <v>57.50548947908391</v>
       </c>
       <c r="D37" t="n">
-        <v>18.08318832813957</v>
+        <v>20.66661301891778</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.10192676166017</v>
+        <v>54.20474460034516</v>
       </c>
       <c r="D38" t="n">
-        <v>21.05059724766303</v>
+        <v>17.16902005720763</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.49902992887357</v>
+        <v>49.033156936967</v>
       </c>
       <c r="D39" t="n">
-        <v>20.26503358388665</v>
+        <v>21.90318889701193</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>50.17462949448334</v>
+        <v>55.54274902196092</v>
       </c>
       <c r="D40" t="n">
-        <v>21.91262968384939</v>
+        <v>21.19796207839794</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>48.54571305793814</v>
+        <v>50.44752672506345</v>
       </c>
       <c r="D41" t="n">
-        <v>18.02108713686252</v>
+        <v>18.64667845743415</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.58868987692673</v>
+        <v>48.62066466107048</v>
       </c>
       <c r="D42" t="n">
-        <v>17.28899624748318</v>
+        <v>19.03663323530348</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>47.89758498759656</v>
+        <v>50.99001430109493</v>
       </c>
       <c r="D43" t="n">
-        <v>21.1276315124537</v>
+        <v>19.46270477042079</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>45.16006790096039</v>
+        <v>50.77748163490765</v>
       </c>
       <c r="D44" t="n">
-        <v>20.15724097587942</v>
+        <v>19.51738077329131</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>50.86635752298635</v>
+        <v>47.58574623260857</v>
       </c>
       <c r="D45" t="n">
-        <v>22.9264778509754</v>
+        <v>19.57034660091792</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>47.56476326323109</v>
+        <v>42.87527402059452</v>
       </c>
       <c r="D46" t="n">
-        <v>19.27309052196599</v>
+        <v>19.78245976376712</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>43.3230029099371</v>
+        <v>47.1262204516057</v>
       </c>
       <c r="D47" t="n">
-        <v>19.94672936913743</v>
+        <v>20.0824729813487</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>45.00425859849759</v>
+        <v>43.97305137755035</v>
       </c>
       <c r="D48" t="n">
-        <v>20.41453172068879</v>
+        <v>16.07571559867783</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.27677441088613</v>
+        <v>43.73059353888389</v>
       </c>
       <c r="D49" t="n">
-        <v>16.21380873095497</v>
+        <v>18.19179286729793</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>36.81264001983693</v>
+        <v>41.77047762637928</v>
       </c>
       <c r="D50" t="n">
-        <v>18.48745425844949</v>
+        <v>18.47984934893958</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>39.3011131810884</v>
+        <v>42.27095607136696</v>
       </c>
       <c r="D51" t="n">
-        <v>17.19559955376652</v>
+        <v>19.20380345935208</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.07900885409071</v>
+        <v>42.87787479841949</v>
       </c>
       <c r="D52" t="n">
-        <v>20.72662380199266</v>
+        <v>17.63867230544209</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.69463414599768</v>
+        <v>38.00143399686494</v>
       </c>
       <c r="D53" t="n">
-        <v>21.4641729062412</v>
+        <v>20.0470419114334</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>36.74972192830534</v>
+        <v>39.79032874224943</v>
       </c>
       <c r="D54" t="n">
-        <v>17.1972502805181</v>
+        <v>18.9169026131366</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.2174901868639</v>
+        <v>34.03092680727448</v>
       </c>
       <c r="D55" t="n">
-        <v>21.13814949748122</v>
+        <v>19.32403577371365</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>37.0176733888441</v>
+        <v>32.04211539268427</v>
       </c>
       <c r="D56" t="n">
-        <v>19.4328901292117</v>
+        <v>20.51938320956809</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.66222748843013</v>
+        <v>36.56208877779726</v>
       </c>
       <c r="D57" t="n">
-        <v>19.73834326372618</v>
+        <v>19.24506658095985</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.49737547539833</v>
+        <v>39.56080042229742</v>
       </c>
       <c r="D58" t="n">
-        <v>20.56698810870535</v>
+        <v>20.96665326505791</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.60285440130138</v>
+        <v>30.41648252531366</v>
       </c>
       <c r="D59" t="n">
-        <v>18.55883752259786</v>
+        <v>18.57975973008723</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>33.89846582853406</v>
+        <v>28.16722213056111</v>
       </c>
       <c r="D60" t="n">
-        <v>18.51772769074175</v>
+        <v>20.03931823487434</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>29.39114626816533</v>
+        <v>28.79061036360246</v>
       </c>
       <c r="D61" t="n">
-        <v>19.81909006981782</v>
+        <v>20.90102220763318</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.49308209813547</v>
+        <v>31.54959523428389</v>
       </c>
       <c r="D62" t="n">
-        <v>19.54682738950115</v>
+        <v>20.11721521833857</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>31.52839061365057</v>
+        <v>28.36581856626377</v>
       </c>
       <c r="D63" t="n">
-        <v>18.68569155296515</v>
+        <v>18.68775152852597</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>30.23669781519577</v>
+        <v>29.28996429594</v>
       </c>
       <c r="D64" t="n">
-        <v>20.65504674902472</v>
+        <v>17.63840049858953</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>23.14242857712244</v>
+        <v>24.37568957250221</v>
       </c>
       <c r="D65" t="n">
-        <v>18.67119724361836</v>
+        <v>19.68204805808523</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>29.03833431277718</v>
+        <v>24.47678775677133</v>
       </c>
       <c r="D66" t="n">
-        <v>21.89392563092685</v>
+        <v>21.29881443349545</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>20.50612829417519</v>
+        <v>21.21435657072967</v>
       </c>
       <c r="D67" t="n">
-        <v>21.4474123557135</v>
+        <v>21.0012574227149</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.67108903249115</v>
+        <v>26.57990801622189</v>
       </c>
       <c r="D68" t="n">
-        <v>20.36203405746441</v>
+        <v>21.01873435654234</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>26.26246211507364</v>
+        <v>21.40233757923709</v>
       </c>
       <c r="D69" t="n">
-        <v>20.17184526132863</v>
+        <v>19.75235806245272</v>
       </c>
     </row>
   </sheetData>
